--- a/cw/01-Excel/2/Activities/09-Ins_PivotTables/Unsolved/PivotTables_Unsolved.xlsx
+++ b/cw/01-Excel/2/Activities/09-Ins_PivotTables/Unsolved/PivotTables_Unsolved.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomberton/Desktop/09-Ins_PivotTables/Unsolved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kaboni/Desktop/RBootcamp/RBootcamp/cw/01-Excel/2/Activities/09-Ins_PivotTables/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54035956-B385-BA4E-8667-3917E0CC1E3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A978BAA0-7450-3442-A973-D372C1F40B29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20180" windowHeight="12820" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25720" yWindow="-6340" windowWidth="25780" windowHeight="18020" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$F$214</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="27">
   <si>
     <t>Country</t>
   </si>
@@ -98,6 +102,21 @@
   <si>
     <t>Profit</t>
   </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Profit</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
 </sst>
 </file>
 
@@ -143,11 +162,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,6 +215,2323 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kevin S" refreshedDate="44235.562804398149" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="214" xr:uid="{5F55B473-287C-E446-8D77-A251A1EBBD52}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Order ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="213"/>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Carrots"/>
+        <s v="Broccoli"/>
+        <s v="Banana"/>
+        <s v="Beans"/>
+        <s v="Orange"/>
+        <s v="Apple"/>
+        <s v="Mango"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Vegetables"/>
+        <s v="Fruit"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Profit" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="107" maxValue="9990" count="214">
+        <n v="4270"/>
+        <n v="8239"/>
+        <n v="617"/>
+        <n v="8384"/>
+        <n v="2626"/>
+        <n v="3610"/>
+        <n v="9062"/>
+        <n v="6906"/>
+        <n v="2417"/>
+        <n v="7431"/>
+        <n v="8250"/>
+        <n v="7012"/>
+        <n v="1903"/>
+        <n v="2824"/>
+        <n v="6946"/>
+        <n v="2320"/>
+        <n v="2116"/>
+        <n v="1135"/>
+        <n v="3595"/>
+        <n v="1161"/>
+        <n v="2256"/>
+        <n v="1004"/>
+        <n v="3642"/>
+        <n v="4582"/>
+        <n v="3559"/>
+        <n v="5154"/>
+        <n v="7388"/>
+        <n v="7163"/>
+        <n v="5101"/>
+        <n v="7602"/>
+        <n v="1641"/>
+        <n v="8892"/>
+        <n v="2060"/>
+        <n v="1557"/>
+        <n v="6509"/>
+        <n v="5718"/>
+        <n v="7655"/>
+        <n v="9116"/>
+        <n v="2795"/>
+        <n v="5084"/>
+        <n v="8941"/>
+        <n v="5341"/>
+        <n v="135"/>
+        <n v="9400"/>
+        <n v="6045"/>
+        <n v="5820"/>
+        <n v="8887"/>
+        <n v="6982"/>
+        <n v="4029"/>
+        <n v="3665"/>
+        <n v="4781"/>
+        <n v="3663"/>
+        <n v="6331"/>
+        <n v="4364"/>
+        <n v="607"/>
+        <n v="1054"/>
+        <n v="7659"/>
+        <n v="277"/>
+        <n v="235"/>
+        <n v="1113"/>
+        <n v="1128"/>
+        <n v="9231"/>
+        <n v="4387"/>
+        <n v="2763"/>
+        <n v="7898"/>
+        <n v="2427"/>
+        <n v="8663"/>
+        <n v="2789"/>
+        <n v="4054"/>
+        <n v="2262"/>
+        <n v="5600"/>
+        <n v="5787"/>
+        <n v="6295"/>
+        <n v="474"/>
+        <n v="4325"/>
+        <n v="592"/>
+        <n v="4330"/>
+        <n v="9405"/>
+        <n v="7671"/>
+        <n v="5791"/>
+        <n v="6007"/>
+        <n v="5030"/>
+        <n v="6763"/>
+        <n v="4248"/>
+        <n v="9543"/>
+        <n v="2054"/>
+        <n v="7094"/>
+        <n v="6087"/>
+        <n v="4264"/>
+        <n v="9333"/>
+        <n v="8775"/>
+        <n v="2011"/>
+        <n v="5632"/>
+        <n v="4904"/>
+        <n v="1002"/>
+        <n v="8141"/>
+        <n v="3644"/>
+        <n v="1380"/>
+        <n v="8354"/>
+        <n v="5182"/>
+        <n v="2193"/>
+        <n v="3647"/>
+        <n v="4104"/>
+        <n v="7457"/>
+        <n v="3767"/>
+        <n v="4685"/>
+        <n v="3917"/>
+        <n v="521"/>
+        <n v="5605"/>
+        <n v="9630"/>
+        <n v="6941"/>
+        <n v="7231"/>
+        <n v="8891"/>
+        <n v="107"/>
+        <n v="4243"/>
+        <n v="4514"/>
+        <n v="5480"/>
+        <n v="5002"/>
+        <n v="8530"/>
+        <n v="4819"/>
+        <n v="6343"/>
+        <n v="2318"/>
+        <n v="220"/>
+        <n v="6341"/>
+        <n v="330"/>
+        <n v="3027"/>
+        <n v="850"/>
+        <n v="8986"/>
+        <n v="3800"/>
+        <n v="5751"/>
+        <n v="1704"/>
+        <n v="7966"/>
+        <n v="852"/>
+        <n v="8416"/>
+        <n v="7144"/>
+        <n v="7854"/>
+        <n v="859"/>
+        <n v="8049"/>
+        <n v="2836"/>
+        <n v="1743"/>
+        <n v="3844"/>
+        <n v="7490"/>
+        <n v="4483"/>
+        <n v="7333"/>
+        <n v="7654"/>
+        <n v="3944"/>
+        <n v="5761"/>
+        <n v="6864"/>
+        <n v="4016"/>
+        <n v="1841"/>
+        <n v="424"/>
+        <n v="8765"/>
+        <n v="5583"/>
+        <n v="4390"/>
+        <n v="352"/>
+        <n v="8489"/>
+        <n v="7090"/>
+        <n v="7880"/>
+        <n v="3861"/>
+        <n v="7927"/>
+        <n v="6162"/>
+        <n v="5523"/>
+        <n v="5936"/>
+        <n v="7251"/>
+        <n v="6187"/>
+        <n v="3210"/>
+        <n v="682"/>
+        <n v="793"/>
+        <n v="5346"/>
+        <n v="7103"/>
+        <n v="4603"/>
+        <n v="8160"/>
+        <n v="7171"/>
+        <n v="3552"/>
+        <n v="7273"/>
+        <n v="2402"/>
+        <n v="1197"/>
+        <n v="5015"/>
+        <n v="5818"/>
+        <n v="4399"/>
+        <n v="3011"/>
+        <n v="4715"/>
+        <n v="5321"/>
+        <n v="8894"/>
+        <n v="4846"/>
+        <n v="284"/>
+        <n v="8283"/>
+        <n v="9990"/>
+        <n v="9014"/>
+        <n v="1942"/>
+        <n v="7223"/>
+        <n v="4673"/>
+        <n v="9104"/>
+        <n v="6078"/>
+        <n v="3278"/>
+        <n v="136"/>
+        <n v="8377"/>
+        <n v="2382"/>
+        <n v="8702"/>
+        <n v="5021"/>
+        <n v="1760"/>
+        <n v="4766"/>
+        <n v="1541"/>
+        <n v="2782"/>
+        <n v="2455"/>
+        <n v="4512"/>
+        <n v="8752"/>
+        <n v="9127"/>
+        <n v="1777"/>
+        <n v="680"/>
+        <n v="958"/>
+        <n v="2613"/>
+        <n v="339"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-01-06T00:00:00" maxDate="2016-12-31T00:00:00"/>
+    </cacheField>
+    <cacheField name="Country" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="United States"/>
+        <s v="United Kingdom"/>
+        <s v="Canada"/>
+        <s v="Germany"/>
+        <s v="Australia"/>
+        <s v="New Zealand"/>
+        <s v="France"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="214">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="2016-01-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2016-01-07T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="2016-01-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2016-01-10T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <d v="2016-01-10T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+    <d v="2016-01-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <d v="2016-01-11T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <d v="2016-01-16T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="8"/>
+    <d v="2016-01-16T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="9"/>
+    <d v="2016-01-16T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="10"/>
+    <d v="2016-01-16T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+    <d v="2016-01-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+    <d v="2016-01-20T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="13"/>
+    <d v="2016-01-22T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="14"/>
+    <d v="2016-01-24T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="15"/>
+    <d v="2016-01-27T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="16"/>
+    <d v="2016-01-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="17"/>
+    <d v="2016-01-30T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="18"/>
+    <d v="2016-01-30T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="19"/>
+    <d v="2016-02-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="20"/>
+    <d v="2016-02-04T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="21"/>
+    <d v="2016-02-11T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="22"/>
+    <d v="2016-02-14T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="23"/>
+    <d v="2016-02-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="24"/>
+    <d v="2016-02-17T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <d v="2016-02-17T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="26"/>
+    <d v="2016-02-18T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="27"/>
+    <d v="2016-02-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="28"/>
+    <d v="2016-02-20T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="29"/>
+    <d v="2016-02-21T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="30"/>
+    <d v="2016-02-22T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="31"/>
+    <d v="2016-02-23T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="32"/>
+    <d v="2016-02-29T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="33"/>
+    <d v="2016-02-29T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="34"/>
+    <d v="2016-03-01T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="35"/>
+    <d v="2016-03-04T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="36"/>
+    <d v="2016-03-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="37"/>
+    <d v="2016-03-05T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="38"/>
+    <d v="2016-03-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="39"/>
+    <d v="2016-03-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="40"/>
+    <d v="2016-03-15T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="41"/>
+    <d v="2016-03-16T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="42"/>
+    <d v="2016-03-19T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="43"/>
+    <d v="2016-03-19T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="44"/>
+    <d v="2016-03-21T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="45"/>
+    <d v="2016-03-22T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="46"/>
+    <d v="2016-03-23T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="47"/>
+    <d v="2016-03-24T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="48"/>
+    <d v="2016-03-26T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="49"/>
+    <d v="2016-03-26T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="50"/>
+    <d v="2016-03-29T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="51"/>
+    <d v="2016-03-30T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="52"/>
+    <d v="2016-04-01T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="53"/>
+    <d v="2016-04-01T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="54"/>
+    <d v="2016-04-03T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="55"/>
+    <d v="2016-04-06T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="56"/>
+    <d v="2016-04-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="57"/>
+    <d v="2016-04-12T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="58"/>
+    <d v="2016-04-17T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="59"/>
+    <d v="2016-04-18T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="60"/>
+    <d v="2016-04-21T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="61"/>
+    <d v="2016-04-22T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="62"/>
+    <d v="2016-04-23T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="63"/>
+    <d v="2016-04-25T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="64"/>
+    <d v="2016-04-27T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="65"/>
+    <d v="2016-04-30T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="66"/>
+    <d v="2016-05-01T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="67"/>
+    <d v="2016-05-01T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="68"/>
+    <d v="2016-05-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="69"/>
+    <d v="2016-05-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="70"/>
+    <d v="2016-05-02T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="71"/>
+    <d v="2016-05-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="72"/>
+    <d v="2016-05-03T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="73"/>
+    <d v="2016-05-05T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="74"/>
+    <d v="2016-05-05T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="75"/>
+    <d v="2016-05-06T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="76"/>
+    <d v="2016-05-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="77"/>
+    <d v="2016-05-08T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="78"/>
+    <d v="2016-05-08T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="79"/>
+    <d v="2016-05-08T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="80"/>
+    <d v="2016-05-12T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="81"/>
+    <d v="2016-05-14T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="82"/>
+    <d v="2016-05-14T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="83"/>
+    <d v="2016-05-15T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="84"/>
+    <d v="2016-05-16T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="85"/>
+    <d v="2016-05-16T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="86"/>
+    <d v="2016-05-16T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="87"/>
+    <d v="2016-05-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="88"/>
+    <d v="2016-05-19T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="89"/>
+    <d v="2016-05-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="90"/>
+    <d v="2016-05-22T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="91"/>
+    <d v="2016-05-23T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="92"/>
+    <d v="2016-05-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="93"/>
+    <d v="2016-05-25T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="94"/>
+    <d v="2016-05-25T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="95"/>
+    <d v="2016-05-26T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="96"/>
+    <d v="2016-05-26T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="97"/>
+    <d v="2016-05-26T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="98"/>
+    <d v="2016-05-26T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="99"/>
+    <d v="2016-05-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="100"/>
+    <d v="2016-05-27T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="101"/>
+    <d v="2016-05-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="102"/>
+    <d v="2016-05-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="103"/>
+    <d v="2016-05-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="104"/>
+    <d v="2016-05-29T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="105"/>
+    <d v="2016-05-30T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="106"/>
+    <d v="2016-06-04T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="107"/>
+    <d v="2016-06-04T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="108"/>
+    <d v="2016-06-10T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="109"/>
+    <d v="2016-06-11T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="110"/>
+    <d v="2016-06-20T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="111"/>
+    <d v="2016-06-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="112"/>
+    <d v="2016-06-23T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="113"/>
+    <d v="2016-06-25T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="114"/>
+    <d v="2016-06-26T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="115"/>
+    <d v="2016-06-27T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="116"/>
+    <d v="2016-07-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="117"/>
+    <d v="2016-07-02T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="118"/>
+    <d v="2016-07-05T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="119"/>
+    <d v="2016-07-07T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="120"/>
+    <d v="2016-07-11T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="121"/>
+    <d v="2016-07-13T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="122"/>
+    <d v="2016-07-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="123"/>
+    <d v="2016-07-20T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="124"/>
+    <d v="2016-07-20T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="125"/>
+    <d v="2016-07-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="126"/>
+    <d v="2016-07-22T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="127"/>
+    <d v="2016-07-23T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="128"/>
+    <d v="2016-07-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="129"/>
+    <d v="2016-07-28T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="130"/>
+    <d v="2016-07-29T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="131"/>
+    <d v="2016-07-30T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="132"/>
+    <d v="2016-07-31T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="133"/>
+    <d v="2016-07-31T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="134"/>
+    <d v="2016-08-01T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="135"/>
+    <d v="2016-08-01T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="136"/>
+    <d v="2016-08-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="137"/>
+    <d v="2016-08-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="138"/>
+    <d v="2016-08-13T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="139"/>
+    <d v="2016-08-19T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="140"/>
+    <d v="2016-08-23T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="141"/>
+    <d v="2016-08-24T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="142"/>
+    <d v="2016-08-25T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="143"/>
+    <d v="2016-08-27T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="144"/>
+    <d v="2016-08-28T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="145"/>
+    <d v="2016-08-29T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="146"/>
+    <d v="2016-08-29T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="147"/>
+    <d v="2016-09-01T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="148"/>
+    <d v="2016-09-01T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="149"/>
+    <d v="2016-09-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="150"/>
+    <d v="2016-09-05T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="151"/>
+    <d v="2016-09-07T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="152"/>
+    <d v="2016-09-08T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="153"/>
+    <d v="2016-09-09T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="154"/>
+    <d v="2016-09-09T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="155"/>
+    <d v="2016-09-11T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="156"/>
+    <d v="2016-09-11T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="157"/>
+    <d v="2016-09-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="158"/>
+    <d v="2016-09-18T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="159"/>
+    <d v="2016-09-19T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="160"/>
+    <d v="2016-09-20T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="161"/>
+    <d v="2016-09-25T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="162"/>
+    <d v="2016-09-25T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="163"/>
+    <d v="2016-09-26T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="164"/>
+    <d v="2016-09-27T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="165"/>
+    <d v="2016-09-29T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="166"/>
+    <d v="2016-09-29T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="167"/>
+    <d v="2016-10-03T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="168"/>
+    <d v="2016-10-04T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="169"/>
+    <d v="2016-10-07T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="170"/>
+    <d v="2016-10-10T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="171"/>
+    <d v="2016-10-16T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="172"/>
+    <d v="2016-10-23T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="173"/>
+    <d v="2016-10-23T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="174"/>
+    <d v="2016-10-25T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="175"/>
+    <d v="2016-10-26T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="176"/>
+    <d v="2016-10-26T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="177"/>
+    <d v="2016-10-26T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="178"/>
+    <d v="2016-11-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="179"/>
+    <d v="2016-11-03T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="180"/>
+    <d v="2016-11-03T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="181"/>
+    <d v="2016-11-09T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="182"/>
+    <d v="2016-11-12T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="183"/>
+    <d v="2016-11-15T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="184"/>
+    <d v="2016-11-25T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="185"/>
+    <d v="2016-11-25T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="187"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="186"/>
+    <d v="2016-11-26T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="187"/>
+    <d v="2016-11-28T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="188"/>
+    <d v="2016-11-28T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="189"/>
+    <d v="2016-11-29T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="190"/>
+    <d v="2016-11-30T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="191"/>
+    <d v="2016-12-02T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="192"/>
+    <d v="2016-12-04T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="193"/>
+    <d v="2016-12-05T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="194"/>
+    <d v="2016-12-06T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="195"/>
+    <d v="2016-12-12T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="196"/>
+    <d v="2016-12-12T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="198"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="197"/>
+    <d v="2016-12-12T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="199"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="198"/>
+    <d v="2016-12-15T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="199"/>
+    <d v="2016-12-16T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="200"/>
+    <d v="2016-12-16T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="202"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="201"/>
+    <d v="2016-12-18T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="203"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="202"/>
+    <d v="2016-12-19T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="204"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="203"/>
+    <d v="2016-12-20T00:00:00"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="205"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="204"/>
+    <d v="2016-12-20T00:00:00"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="206"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="205"/>
+    <d v="2016-12-22T00:00:00"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="207"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="206"/>
+    <d v="2016-12-22T00:00:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="208"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="207"/>
+    <d v="2016-12-25T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="209"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="208"/>
+    <d v="2016-12-28T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="209"/>
+    <d v="2016-12-28T00:00:00"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="211"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="210"/>
+    <d v="2016-12-29T00:00:00"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="212"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="211"/>
+    <d v="2016-12-29T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="213"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="212"/>
+    <d v="2016-12-30T00:00:00"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="213"/>
+    <m/>
+    <x v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AE134A3-3D26-5B45-8CF9-D8F8B74A4D24}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="9">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="215">
+        <item x="113"/>
+        <item x="42"/>
+        <item x="195"/>
+        <item x="122"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="185"/>
+        <item x="124"/>
+        <item x="212"/>
+        <item x="154"/>
+        <item x="150"/>
+        <item x="73"/>
+        <item x="107"/>
+        <item x="75"/>
+        <item x="54"/>
+        <item x="2"/>
+        <item x="209"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="126"/>
+        <item x="132"/>
+        <item x="136"/>
+        <item x="210"/>
+        <item x="94"/>
+        <item x="21"/>
+        <item x="55"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="176"/>
+        <item x="97"/>
+        <item x="202"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="130"/>
+        <item x="139"/>
+        <item x="200"/>
+        <item x="208"/>
+        <item x="149"/>
+        <item x="12"/>
+        <item x="189"/>
+        <item x="91"/>
+        <item x="85"/>
+        <item x="32"/>
+        <item x="16"/>
+        <item x="100"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="121"/>
+        <item x="15"/>
+        <item x="197"/>
+        <item x="175"/>
+        <item x="8"/>
+        <item x="65"/>
+        <item x="204"/>
+        <item x="211"/>
+        <item x="4"/>
+        <item x="63"/>
+        <item x="203"/>
+        <item x="67"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="138"/>
+        <item x="180"/>
+        <item x="125"/>
+        <item x="165"/>
+        <item x="194"/>
+        <item x="173"/>
+        <item x="24"/>
+        <item x="18"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="96"/>
+        <item x="101"/>
+        <item x="51"/>
+        <item x="49"/>
+        <item x="104"/>
+        <item x="128"/>
+        <item x="140"/>
+        <item x="158"/>
+        <item x="106"/>
+        <item x="145"/>
+        <item x="148"/>
+        <item x="48"/>
+        <item x="68"/>
+        <item x="102"/>
+        <item x="114"/>
+        <item x="83"/>
+        <item x="88"/>
+        <item x="0"/>
+        <item x="74"/>
+        <item x="76"/>
+        <item x="53"/>
+        <item x="62"/>
+        <item x="153"/>
+        <item x="179"/>
+        <item x="142"/>
+        <item x="205"/>
+        <item x="115"/>
+        <item x="23"/>
+        <item x="170"/>
+        <item x="191"/>
+        <item x="105"/>
+        <item x="181"/>
+        <item x="201"/>
+        <item x="50"/>
+        <item x="119"/>
+        <item x="184"/>
+        <item x="93"/>
+        <item x="117"/>
+        <item x="177"/>
+        <item x="199"/>
+        <item x="81"/>
+        <item x="39"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="99"/>
+        <item x="182"/>
+        <item x="41"/>
+        <item x="168"/>
+        <item x="116"/>
+        <item x="161"/>
+        <item x="152"/>
+        <item x="70"/>
+        <item x="108"/>
+        <item x="92"/>
+        <item x="35"/>
+        <item x="129"/>
+        <item x="146"/>
+        <item x="71"/>
+        <item x="79"/>
+        <item x="178"/>
+        <item x="45"/>
+        <item x="162"/>
+        <item x="80"/>
+        <item x="44"/>
+        <item x="193"/>
+        <item x="87"/>
+        <item x="160"/>
+        <item x="164"/>
+        <item x="72"/>
+        <item x="52"/>
+        <item x="123"/>
+        <item x="120"/>
+        <item x="34"/>
+        <item x="82"/>
+        <item x="147"/>
+        <item x="7"/>
+        <item x="110"/>
+        <item x="14"/>
+        <item x="47"/>
+        <item x="11"/>
+        <item x="156"/>
+        <item x="86"/>
+        <item x="169"/>
+        <item x="134"/>
+        <item x="27"/>
+        <item x="172"/>
+        <item x="190"/>
+        <item x="111"/>
+        <item x="163"/>
+        <item x="174"/>
+        <item x="143"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="103"/>
+        <item x="141"/>
+        <item x="29"/>
+        <item x="144"/>
+        <item x="36"/>
+        <item x="56"/>
+        <item x="78"/>
+        <item x="135"/>
+        <item x="157"/>
+        <item x="64"/>
+        <item x="159"/>
+        <item x="131"/>
+        <item x="137"/>
+        <item x="95"/>
+        <item x="171"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="186"/>
+        <item x="98"/>
+        <item x="196"/>
+        <item x="3"/>
+        <item x="133"/>
+        <item x="155"/>
+        <item x="118"/>
+        <item x="66"/>
+        <item x="198"/>
+        <item x="206"/>
+        <item x="151"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="112"/>
+        <item x="31"/>
+        <item x="183"/>
+        <item x="40"/>
+        <item x="127"/>
+        <item x="188"/>
+        <item x="6"/>
+        <item x="192"/>
+        <item x="37"/>
+        <item x="207"/>
+        <item x="61"/>
+        <item x="89"/>
+        <item x="43"/>
+        <item x="77"/>
+        <item x="84"/>
+        <item x="109"/>
+        <item x="187"/>
+        <item x="213"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Profit" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,11 +2830,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9774212-FB31-F549-9F55-565B5BA94EF5}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
+        <v>340295</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>340295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>191257</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>191257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>142439</v>
+      </c>
+      <c r="D7" s="6">
+        <v>142439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>136945</v>
+      </c>
+      <c r="D8" s="6">
+        <v>136945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>104438</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>104438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>57281</v>
+      </c>
+      <c r="D10" s="6">
+        <v>57281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>57079</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>57079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>693069</v>
+      </c>
+      <c r="C12" s="6">
+        <v>336665</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1029734</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
